--- a/500all/speech_level/speeches_CHRG-114hhrg94088.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400224</t>
   </si>
   <si>
-    <t>John Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the committee on Education and the Workforce will come to order.    Well, good morning. Welcome to our guests. We have a very distinguished panel of witnesses today, including the First Lady of the Commonwealth of Virginia, Mrs. Dorothy McAuliffe.    Mrs. McAuliffe, we are delighted to have you with us this morning as we discuss important policies affecting our nation's students and families.    Healthy meals are vitally important to a child's education. It is just basic common sense that if a child is hungry, then he or she is less likely to succeed in the classroom and later in life. That is why our nation has long invested in services to provide low income students nutritious meals in schools. Those services are authorized through a number of laws, such as the Richard B. Russell National School Lunch Act and the Child Nutrition Act.    In just a few short months, these laws and the programs they authorize will expire, including the National School Lunch and Breakfast Programs, the Supplemental Nutritional Program for Woman, Infants and Children, or WIC program, and several others.    It is the responsibility of this committee and Congress to reauthorize these programs so that students and families receive the support they need in the most efficient and effective way. Why is that important? Because no child should go to school hungry. It is that simple.    Today's discussion is not about whether we agree on this basic principle; I am confident we all do. Instead, our discussion today is about beginning a larger effort we will continue in the coming months to ensure the best policies are in place to help us reach this goal.    Last week, I had an opportunity to tour a school lunch room at the Prior Lake High School in Savage, Minnesota. Students and faculty described what's working and what isn't working in federal nutrition programs.    As a result of our conversation, two important realities are abundantly clear. First, our school nutrition professionals are dedicated men and women doing the best they can under difficult circumstances and no one should question their commitment to providing students with nutritious meals.    Unfortunately, rules and regulations put in place in recent years have made their jobs harder, not easier. The cost of the lunch and breakfast programs for schools are going up, yet fewer meals are being served. In fact, the number of children participating in these programs is declining more rapidly than any period over the last 30 years.    Second, as we reauthorize these programs, we have to provide more flexibility at the state and local levels. Those working in our schools and cafeterias recognize that this has to be a priority. Even students understand the urgent need for more flexibility.    During my visit to Prior Lake High School, I talked with a number of students about their school lunch program. Right now, the federal government determines the number of calories, vegetables, and grains that are served to students, which means Washington is dictating how much food every child is served at every school meal. This is one reason why the students in this school are urging the school to drop out of the program.    Many children are bringing food from home or buying more food because the portion sizes served at school are too small for a full meal. As one student, Perina Svigem noted, ``A lot of times, we are going back and getting junk food, not healthy food.''    This isn't what these children want, this isn't what their parents and school administrators want, and it is not what we want either. We have to find a better way forward, one that continues our commitment to providing nutritious meals for America's students while giving state and school leaders the flexibility they need to make it a reality.    That is why we are delighted to have you here today, Mrs. McAuliffe. Through your work, you are demonstrating that promoting healthy lifestyles is not just a federal priority, but a state and local priority, as well.    Often we are told we need more federal involvement because states can't be trusted to help those in need. But through your leadership, you are showing states can take the lead on tough issues in partnership with the federal government.    Again, I would like to thank all of our witnesses for participating in today's hearing, and working with us to strengthen child nutrition support.    With that, I will now recognize the committee's ranking member, my colleague, Congressman Scott from the Commonwealth of Virginia for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
-    <t>Robert C. "Bobby" Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman, for holding this hearing, and I look forward to examining the continuum of federal child nutrition programs which are the lifelines for approximately 40 million children who rely on them for healthy food every day.    I would like to extend my thanks to all of the witnesses, but especially the First Lady of my home state of Virginia, Dorothy McAuliffe. She has been focusing not only on ending childhood hunger, but also improving access to Virginia's fresh and locally-grown agricultural commodities. This dual goal helps children, supports our farmers and strengthens local economies.    More than 60 years ago, through the enactment of the first federal child nutrition program, the National School Lunch Act of 1946, Congress recognized that feeding hungry children was not just a moral imperative but also an imperative for the health and security of our nation.    Today, a majority of the American public school students, 51 percent, are eligible for free and reduced school lunch prices. According to the latest USDA data, 15.8 million, or over 21 percent of children live in households facing a constant struggle against hunger. The rates are nearly double for African-American children at almost 40 percent, and significantly higher for Hispanic children at almost 30 percent.    The continuum of child nutrition programs and policies that we will be discussing today are vital to the long-term successes of our nation's children and, through them, our nation itself. Through WIC prenatal programs to school and summer meals and child care food programs, participation in these programs has resulted in positive health outcomes for low income children and are 4:1 return on investment. For example, WIC saves over $4 for every $1 invested in the program due to fewer low birth-weight and pre-term babies, which costs our nation over $26 billion a year.    Hunger is linked to lower student achievement and poorer behavioral outcomes. These programs are powerful tools in providing greater economic opportunities for at-risk youth and helping them break free of the tragic cycle of poverty.    While access to food is vitally important, equally important is access to nutritious, high-quality food. But 30 million children rely on the national school lunch and breakfast programs. Students consume up to half of their daily calories while at school, and, for many children, school-based meals are their primary source of nutrition.    Foods that are too high in fat and sugar have been linked to weaker educational and behavioral outcomes. They also lead to childhood obesity and long-term health consequences as adults, including heart disease, hypertension and diabetes. Approximately 10 percent of our nation's health care spending go towards treating conditions related to obesity and unhealthy weight.    To address these challenges in 2010, Congress enacted the Healthy Hunger-Free Kids Act. In addition to expanding access to child nutrition programs, the law also updated and improved the nutritional standards for foods served to our children, standards that had not been revised in over 15 years.    Most importantly, the new standards are based on scientific evidence, not politics or fiscal bottom lines. They include weekly limits on calories, sugar, fat and sodium, require fruits and vegetables at every meal and incorporate whole grains. These changes are not promoting an exotic diet fad; they conform to the healthy eating habits that most of us in this room try to follow every day.    In the vast majority of districts, 93 percent across the country, are successfully implementing the new health standards today and students are eating more fruit and vegetables, not just at school, but also outside of school, too.    As we focus on healthier foods for children, we cannot ignore that child nutrition is a national security issue. According to Mission Readiness, a group of retired officers who support healthy meal standards, 25 percent of young Americans are too overweight to enlist in our nation's military.    So I am pleased that today we have an opportunity to discuss the scope and impact of federal child nutrition programs, and, hopefully, ways to improve and strengthen them. And, as we move through this process, we must keep in mind that the overarching goal of these programs is to provide children with healthy foods that can support them as they learn and grow. That, in turn, supports our national interests and long-term economic prosperity.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412605</t>
   </si>
   <si>
-    <t>Dave Brat</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, Mr. Chairman.    First of all, it is an honor to have our First Lady from Virginia with us today. Thank you for being here.    I am going to introduce Mr. Duke Storen. Duke is a national policy expert with extensive experience researching and managing child nutrition programs. He hails from my Central Virginia district, as well, and serves as senior director of research for Share Our Strength.    Share Our Strength is an organization that works to end childhood hunger in America by connecting kids to effective nutrition programs. It also teaches low income families how to shop and cook healthy food on a budget. Parents learn to shop strategically, using nutrition information to make healthier choices and cook good, affordable meals.    Before coming to Share Our Strength, Mr. Storen worked at the USDA under two administrations managing child nutrition programs and leading efforts to improve access to them. He has 22 years of experience fighting hunger and addressing poverty, and has consulted with state governments on using technology to improve program effectiveness and efficiency.    Today he will share some ideas on how to make federal nutrition programs more effective and efficient.    Pleasure to have you with us today.    And, Mr. Chairman, I yield back. Thank you.</t>
   </si>
   <si>
@@ -91,36 +82,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Storen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Storen. Good morning, Chairman Kline, Ranking Member Scott and members of the committee. Thank you for holding this important hearing and inviting me to testify today.    It is truly an honor, as ending hunger in America is my vocation, and it has been my life's work. I spent more than 20 years in every sector and at all levels, local, state, and national and community organizations, state government, federal government, at university, technology consulting, and now at Share Our Strength, a national not-for-profit organization that has been on the front lines of fighting hunger and poverty for more than 30 years.    At Share Our Strength, we invest in and implement data-driven programs in all 50 states, and we conduct research to find and replicate solutions that are sustainable. Our No Kid Hungry campaign seeks to end childhood hunger in America by breaking down the barriers between programs like school breakfast and the Summer Food Service Psummer food service rogram, and the kids they are meant to serve.    We create public-private partnerships, working with states and governors on both sides of the aisle to make the federal programs work more efficiently and more effectively. At the same time, we work to empower low income families to maximize their food resources.    Why is this work so important? Because 16 million children in the United States struggle with hunger, and we cannot have a strong America with weak kids. Hunger might not be visible in America as it is in other parts of the world but it lives everywhere, and we have a responsibility to solve this problem.    Hunger affects one in five children. Hunger is in your congressional district. Hunger is in our schools. For the first time, more than half of all the children coming to school are from low income families, and we know from our survey of teachers that three out of four teachers regularly see the face of hunger in their classrooms. And they understand the profound connection between hunger, behavior, and learning. Educators spend over $420 of their own money each year to help mitigate this problem.    Childhood hunger is at its worst during the summer months, when school meals are no longer available. Over four in 10 low income parents report not having enough food to feed their families during the summer. And that is why an effective summer feeding program should be a priority in child nutrition reauthorization.    But there is good news. Childhood hunger in America is a solvable problem, and the child nutrition programs are central to that solution, thanks to the support of you in Congress.    For decades, public-private partnerships have been at the core of this solution, allowing community organizations, schools, faith-based groups and private companies to come together to address this issue. We know that none of these groups could solve the problem of childhood hunger alone, but by all of us working together, we can more efficiently leverage the existing resources.    When kids can participate, the programs help them learn, become healthier, and grow into stronger adults. For example, the school breakfast program has a clear effect on academic achievement. A Deloitte social impact analysis shows that students who eat breakfast at school score 17.5 percent higher on math tests, they attend more days of school, and, together, these benefits make them 20 percent more likely to graduate and earn an average of $10,000 more per year.    However, while these programs work for the kids that can participate, too many eligible children can't participate because of bureaucratic barriers, too much administrative burden, and, for the summer months, a program that has not been updated in over 40 years and serves fewer than one in six children in need.    Through child nutrition reauthorization, Congress has an opportunity to make practical policy changes to fix the summer meals program and to make the other child nutrition programs even more efficient.    It is unacceptable for any child in America to go hungry. And thanks to a bipartisan commitment from Congress, we have strong, sustainable programs in place to help struggling families feed their kids and get to work. But it is critical that we take this opportunity to create more efficiencies in the federal nutrition programs so that we can let kids be kids.    Thank you for the opportunity to speak today, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, Mr. Storen.    Ms. Bauscher, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Bauscher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bauscher. Chairman Kline, Ranking Member Scott, members of the committee, on behalf of the School Nutrition Association's 55,000 members, thank you for the opportunity to discuss the vital role of school meal programs.    School nutrition professionals know the meals we provide can be the most nutritious meals that many children receive. We are passionate about supporting the 30 million students we serve every day. Our job is to nourish them for a successful school day and help them make healthier choices.    Too often in schools across the country, students line up early at the cafeteria door on Monday mornings, hungry for school breakfast after a weekend without enough food to eat at home. We all know growling stomachs can easily distract students, affecting their academic achievement.    With Congress' support, we have been working diligently to meet students' nutritional needs so they can give teachers their full attention. We are improving school lunch, expanding breakfast, and offering more afterschool snacks, suppers and summer meals so students have access to healthy meals, even when school is not in session.    These supplementary meals not only ease food insecurity among students, but also strengthens school meal programs. The more meals and snacks we serve, the less likely our programs will become a financial burden on school district budgets.    To ensure we contribute to healthier diets, SNA members support new regulations limiting calories and unhealthy fat in school meals. We are proud to offer more whole grains, larger servings and a wider variety of fruits and vegetables, and menus with less sodium.    Schools are committed to making these healthy choices appealing with initiatives like Taste Test, Farm-to-School, and Cornell University's Smarter Lunchroom Techniques. In my district, we have steadily increased the quantity of local foods we serve, and work with a local chef to make nutritious recipes delicious.    School nutrition professionals do not want to lose ground on these improvements. SNA will continue to support healthy changes. But Congress must address the sharp increase in cost and waste and the historic decline in student lunch participation under the new rules.    For 30 years, the National School Lunch Program has grown steadily. Under the new rules, 1.4 million fewer students choose school lunch each day. Paid lunch participation has fallen by 15 percent, as students opt out of healthy school meals too often in favor of less nutritious alternatives.    SNA is encouraged to see participation in the free meal category climb, with schools' access to the community eligibility provision. In the 96 schools in my district participating in CEP, daily lunch participation is up 8 percent, and no one has to worry about embarrassing a student without lunch money.    However, schools outside of high poverty areas do not qualify for CEP. These schools struggle the most with decreasing participation which reduces revenue when costs are rising. This year schools must absorb $1.2 billion in added costs as a result of the new rules. Even in my district where CEP has increased revenue, I am experiencing a decline in my program's reserve fund.    School meal programs operate on extremely tight budgets. We must cover labor and benefits, supplies, equipment, indirect and other costs, leaving about $1.25 to spend on the food for each lunch tray. This year, each half pint of milk costs my program a nickel more than last year. That one nickel adds over $700,000 in new expenses.    Meanwhile, a half-cup of fresh fruit, on average, costs me 38 cents. This year, I reluctantly added juice back to my high school lunch menus as a cost saving measure. I haven't served juice at lunch in 15 years in an effort to serve more fiber-rich, whole fruits.    School meal programs can only cut so much. Without some relief, increased costs will impact more than the school meal programs; they will impact school district budgets as a whole. SNA has been supporting members in addressing all these challenges and will continue these efforts. We are working with partners, including Share Our Strength, on initiatives like best practices webinars and education sessions, and we are working with USDA on its Team Up for School Nutrition Success Initiative.    We appreciate the committee's recognition of the importance of strong school nutrition programs and your consideration of the school cafeteria perspective. SNA's members will be a resource in ongoing discussions. We encourage all members of Congress to visit a school cafeteria and talk with school nutrition professionals about their unique successes and challenges.    Thank you, again, for inviting me here today, and I am happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, Ms. Bauscher.    Mrs. McAuliffe, you are recognized.</t>
   </si>
   <si>
-    <t>McAuliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. McAuliffe. Thank you. Thank you, Mr. Chairman, Ranking Member Scott and members of the committee for having me here today.    I am so grateful for the opportunity to be here this morning as you consider the reauthorization of our federal childhood nutrition programs. We all agree that nothing is more important to our future as a nation than the health, education and well-being of our next generation.    I know that much of your deliberations around this reauthorization will focus on what and how we serve our students and families through our nutrition programs. But my hope for my own testimony today is to make sure we remember why these programs are so important.    I come to this, first and foremost, not as a nutritional or educational expert, but simply as a mom. Programs like CEP, school breakfast, and summer food service are the best way we can help ensure our children in need take full advantage of the educational opportunities our schools provide and our taxpayers invest in.    In Virginia alone, we invest $5.5 billion in education. If we want to capture our return on that investment, we have to make sure our students are ready and able to learn when they are in our classrooms. It is both staggering and tragic to learn that, for the first time in at least 50 years, a majority, 51 percent, of public school children in the United States qualified for free and reduced lunches.    In Virginia, over 300,000 of our children are food insecure. That's one in six of our children. The impact of hunger and malnutrition on children is devastating, well documented, and obvious to anyone who is a parent or works with children.    For many children across the country and across Virginia, the meals they receive at school are the most consistent and best meal of the day. How do we prepare the next generation for the jobs of the 21st century if kids aren't strong, healthy and well educated? How can we expect our children to be hungry for knowledge if they are just plain hungry?    I have heard from administrators and teachers all across our state who agree that a hungry child cannot learn. One was Susan Mele, the principal at Stewartsville Elementary School in the rural community of Bedford County. Behavioral problems, tardiness and absenteeism are just a few of the effects of hunger Susan has witnessed in her school.    To respond to these challenges, Susan has combined universal school breakfast with responsive classroom, an approach to teaching that incorporates social-emotional learning as part of the academic day. Susan has seen an increase of 2 percentage points in overall student attendance, plus a significant decrease in trips to the office and tardy arrivals. And the result, Susan has seen a significant increase in academic performance.    Pamela Smith is a principal at Highland View Elementary School in Bristol in Southwest Virginia. Unfortunately, in a school like Highland View where issues of neglect, trauma and mental health are far too prevalent, Pamela has to meet the most basic needs of her students before she and her staff can even begin to teach.    Not only does Pamela make sure that her students start the day with a healthy meal, which she does with great success, but in many cases, the students need to be checked for bruises, be given clean clothes for the day, have their teeth and hair brushed, and just be loved and listened to.    What Pamela and her teachers and staff are doing for these children is, frankly, above and beyond what any school should be tasked with managing. But it is the reality in which far too many must operate. Pamela has done a tremendous job of reaching the needs of her students during the school year, but an area of constant concern is the summer slide. After 9 months of working to bring students up to grade level, 3 months of hunger and unmet basic needs can set students back so far that it leaves Pamela feeling like her kids are trapped in a consistent cycle of one step forward and two steps back.    Working within the current restrictions of the Summer Food Service Program, the challenge of reaching kids in a predominantly rural community has made it tough to put the brakes on the summer slide. As parents, we strive to be supportive of our children's intellectual growth by encouraging them to find their passions and pursue their dreams. It is a tragedy that not all children in Virginia and the United States look out on the world and see the endless possibilities that we know should be there for them. But that is exactly why we are here.    It is our responsibility as public servants to be advocates for the children of this great nation. When three out of four public school teachers say that they have students who consistently come to school hungry, we have to ask ourselves how can we better serve the children who need us most.    When students eat school breakfast, teachers report profound results. Seventy-three percent see kids paying better attention in class, 53 percent see improved attendance, and 48 percent see fewer disciplinary problems.    But with results like these, why are only half of the students who are eligible for free or reduced-price breakfast getting one? And why are only one in seven participating in the summer meals program?    I am confident that your deliberations will uncover better ways to serve children and families through our federal nutrition programs. In Virginia, we look forward to partnering with you to find and implement those solutions. Working together, I know we can guarantee that all of our children are fed and fed well.    Thank you very much. I look forward to the questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you very much.    Dr. Krey, you are recognized.</t>
   </si>
   <si>
-    <t>Krey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Krey. Thank you.    Chairman Kline, Ranking Member Scott and members of the committee, I thank you for the opportunity to appear before you today to discuss the importance of child nutrition programs for students and families.    My name is Kathy Krey and I am the director of research at the Texas Hunger Initiative at Baylor University. THI developed strategies to end hunger through research, education and community development. We convene federal, state and local government with non-profits, faith-based groups and business leaders to increase food security.    Child nutrition programs are an important resource for lessening the effects of food insecurity. These programs are instrumental in ensuring that students from low income families, especially, have access to healthy meals throughout the year.    In Texas, it is estimated that 27 percent of children live in food insecure households, which is higher than the national average, meaning, they have difficulty meeting basic food needs at least some time during the year. THI and its partners across our state have fostered public-private partnerships to maximize the reach and efficiency of child nutrition programs.    Public challenges like food insecurity pertain to more than one jurisdiction by nature. Therefore, they require a response that exceeds the capabilities and resources of any one department or organization. And collaboration provides a way to stretch resources to accomplish more with less.    The administration and coordination of child nutrition programs present unique opportunities for public-private partnerships to take shape. Through actors such as the Texas Department of Agriculture, schools, non-profits, congregations and foundations, community-based resources like funding, volunteers and space are pooled and maximized.    The need for meals is especially high during summer months for Texas children when school is not in session. The summer meals program is one way to ensure that children receive health meals. Schools, non-profits and local municipality service sponsors and have meal sites within their regions.    In Texas, about 300,000 kids a day participate in the summer meals program, and regular access to healthy meals in the summer is important, not just for students' health, but for students' academic well-being. We know that inadequate nutrition can intensify summer learning loss, especially for low income students who can lose up to twice the ground of other students during summer months.    Additionally, after-school snacks and meals can help relieve financial burdens for working parents and provide support for schools and non-profits that run afterschool enrichment programs so they can provide healthy meals. In Texas, in 2014, we served an average of 51,000 meals a day in afterschool programs.    In addition, school meal programs like school breakfasts are important to a successful school day, especially for low income children who might not have access to breakfast at home. In Texas, more than 1.7 million students start their day with school breakfast, including 1.5 million low income students. Eating breakfast is associated with positive student outcomes, including improved attention and memory, and decreased disciplinary action.    School meals offer all students better opportunities to succeed in school, especially children at risk of missing meals at home.    Following are examples of public-private partnerships in Texas that supplement and maximize federal funding and state administration of child nutrition programs. In the Rio Grande Valley, Catholic Charities utilizes the Summer Food Service Program to sponsor over 75 summer meal sites. And they collaborate with churches and non-profits in their area to support these sites, including a local non-profit that provides activities for kids and classes for adults in the summer, and a national non-profit that provide books and educational programming at summer meal sites.    These churches and non-profits coordinate their efforts by sharing volunteers, serving meals and providing activities. In East Texas, THI partners with the local community food coalition and local farmers to redistribute excess food from a local farmer's market to summer meal sites. The program includes educating families on healthy eating habits and cooking lessons. These partnerships link families with existing services in the community to improve quality of life.    Child nutrition programs are necessary to curb the effects of food insecurity. Public-private partnerships bridge local, state and federal resources to maximize the efficiency and reach of these programs so that children can stay fueled for learning all year round.    Thank you for the opportunity to speak.</t>
   </si>
   <si>
@@ -238,9 +217,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman. Thanks for the precedent that you have given, and your leadership. Thank you for this hearing, actually. Incredibly important topic that we talk about fueling our next generation and all future generations.    And thanks to all the panelists for being here for your testimony, your passion, your expertise on an important issue.    Ms. Bauscher, you know, thank you to you and all those that you represent in your association. I spend a lot of time at schools, but I also spend times--the passion, the commitment of the professionals who work in school nutrition, we meet in the community, they come to the office, not just in the school, and I appreciate their leadership and what they do in our schools.    I believe as a result of the most recent federal school nutrition standards, we have seen a sharp decline in the participation of school meal programs. I mean, that is what I am seeing as I get around a lot of my congressional district, which is just about a quarter of the state of Pennsylvania, geographically.    Since fewer students are eating lunch in the cafeteria, they are more at risk of under-consuming the recommended amounts of fruits, vegetables, whole grains and milk. And, notably, 1.1 million fewer students drank milk with lunch during the 2014 school year than compared to 2012.    I would like to reference a new report from the National Dairy Council that highlights the nutritional importance of milk and stresses concern for recent consumption declines. Report underlines that milk is the number one source of nine essential nutrients in young Americans' diets and provides multiple health benefits, including better bone health, lower blood pressure, and reduced risk of cardiovascular disease and Type 2 Diabetes. If today's school students are falling even further behind in milk consumption, it should be easy to agree that action is needed.    You know, my question for you is, given your hands-on experience and the hands-on experience of those that you represent today, and the extensive background with school nutrition, do you agree that this is a concern? And, additionally, what can be done on a federal level to help you increase the average daily participation in the school milk programs?</t>
   </si>
   <si>
@@ -259,9 +235,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott.    I want to thank you all for bringing this panel to talk to us about something very, very important and concerns that we have in Congress.    The Centers for Disease Control tell us that over the past three decades, childhood obesity rates have tripled. Nearly one out of every five American children between the ages of 6 and 19 are obese. That is a national crisis that these programs are designed to address.    Nutrition is directly connected to how well those children do in the classroom, as stated before. Ask any teacher and they will tell you that if children don't have nutrition in the morning, if there is not food in their homes and they come to school hungry, they start to act out in class because they start to drift.    In addition to hunger, we are also fighting a national concern, the scourge of childhood obesity. This concern is found in all 50 states, in both young children and adolescents. It affects our social and economic levels.    The school breakfast lunchroom programs make a difference because they provide more than 50 percent of a student's food and nutrient intake on school days. Child nutrition is at the heart of our social safety net and the safety of all of our children, and these programs have been overwhelmingly successful and they have been cost effective.    Childhood obesity and diabetes are reaching epidemic proportions in both the Hispanic community and the black community across the nation. We must do more to help all young people develop healthy lifestyles.    I could speak about the Rio Grande Valley of South Texas where approximately 85 percent of the students in our region participate in free and reduced meals in our school meal program. According to USDA, one in every three Hispanic and black households with children is food insecure and may not know when the next meal will be available.    Twenty-seven percent of Texas children, as stated before, one in four, live in food insecure households, the second highest rate in the whole country. The source of this data is found in USDA/Feeding America.    I was born and raised in Hidalgo County where more than half of the residents are on food stamps, and they have all these children who are participating. That is why I fully support these new child nutrition programs and believe we should continue to strengthen them, not to weaken them.    My first question is to First Lady McAuliffe. What are the effects on children that Virginia has seen because of your efforts on summer food and school breakfast?</t>
   </si>
   <si>
@@ -289,9 +262,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman, and I appreciate being here and having Ms. Bauscher here from Kentucky and, First Lady, I will say I drive every now and then--about twice a year and it is always a pleasure to drive through Virginia. What a beautiful state.</t>
   </si>
   <si>
@@ -322,9 +292,6 @@
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman. And I thank you all for your testimony today.    Just want to make a couple of comments before I get to my question.    One, certainly, we all understand that we can do better, that we can find better ways to feed hungry children. But I do also want to say that I can understand why wealthy school districts do have a problem because these programs were not designed to help wealthy kids. And so we have to look at it from that perspective. So I can understand if they want to opt out it might be difficult because it is not designed for them.    Now, let me just get to my questions. And I am going to ask everybody the same question. There was a lot of discussion about summer feeding programs which I am especially concerned about because I do represent a district that has more than a 20 percent poverty rate, and in my schools, it is significantly higher, of poor children. So if each one of you can just tell me what you think we can do to make our summer feeding program better. Just one thing you think will make a change, I would appreciate that, as succinctly as possible.    Mr. Storen?</t>
   </si>
   <si>
@@ -367,9 +334,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rokita. I thank the Chairman. I thank the witnesses for their testimony and their leadership on this issue. It is really appreciated.    I want to focus some of my questions around the bureaucracy, maybe in these programs generally and what you do and maybe even if you see some waste, fraud and abuse.    But, Mr. Storen, starting with you, you mentioned bureaucratic inefficiency in your testimony. Can you give me some specific examples?</t>
   </si>
   <si>
@@ -460,9 +424,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman. Thank you to all of you for being here.    I wanted to follow up on the discussion on summer meals earlier and, to you, Mr. Storen, I know you have had some experience with this. What role can the electronic benefit transfer play? We know that the pilot program has been seen as effective and the issue really here, in addition to some others, I think, how do you bring that to scale? And what issues do you think need to be addressed?</t>
   </si>
   <si>
@@ -511,9 +472,6 @@
     <t>412446</t>
   </si>
   <si>
-    <t>Joseph J. Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chair. Thank you all for being here.    I represent the Clark County School District in Southern Nevada where about 58 percent of its almost 320,000 students are on free and reduced lunch.    We are fortunate in my community to have the Three Square food bank organization that provides a lot of services to our students, including backpack for kids, so they go home on Friday with a backpack of food to carry them through the weekend. They participate in feeding for America's Kids Cafe and they also provide summer feeding services.    Mr. Storen, you have mentioned that too many eligible children can't participate in some cases during the summer months because the program has not been updated in 40 years. What types of updates are necessary so that more children can participate?</t>
   </si>
   <si>
@@ -544,9 +502,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    And thank you, Chairman Kline and Ranking Member Scott, for holding today's hearing.    And thank you to all the witnesses for being here to talk about this important issue that has historically been bipartisan. I am really looking forward to working with all my colleagues to take ambitious steps to ensure that fewer children have to worry about where they are going to get their next meal.    And I really appreciate Mr. Rokita bringing up the efficiencies and thank you for your ideas on that. Let us make this work better for more children.    My home state is already doing some great work but still facing some challenges. Just recently our governor signed a bill to eliminate copays for school lunch. I know that other states, Minnesota, Colorado, Vermont, have some variations of this. It is going to affect roughly 30,000 Oregon children who had qualified for reduced-price lunch; it will now be free lunch. We are removing a barrier for many of them.    We also have been doing an Oregon summer EBT for children program. The pilot programs doing EBT transfers for children have seen a significant, up to a third, reduction in child hunger through this program. It has worked well in our pilot in Oregon. We should talk about expanding that because with that significant reduction in hunger, there is a lot of potential there especially with the summer programs.    So it is clear that we need to take action and I know that many of you discussed, of course, how it is difficult for children to learn if they are hungry. It is really in our best interest. In a country like ours where we have so much, it is just wrong for students to be hungry, for children to be hungry.    I thank Representative Fudge who apparently has left for her work on Farm-to-School programs, really important in our state of Oregon, I actually joined one of my colleagues and had lunch at an elementary school that does a Farm-to-School program. We had great fun. It was really good food, too.    So there is, again, a win-win to work on those. Actually, it is a win-win-win because the children get more nutritious food, it supports local agriculture, but it also educates students about the source of their food.    So I wanted to focus on childcare settings and talk about the importance of making sure that children in child care settings can get a late afternoon snack or supper when their parents have to work late, for example.    So I want to ask you, Mr. Storen--first of all, thank you for acknowledging that this is a shared responsibility. It is an important role for Congress but there are also a lot of partnerships with our faith community, our non-profits, our parents.    Can you talk, Mr. Storen, about some of the steps that we could take to promote a provider's participation in the Child and Adult Care Food Program? Child nutrition programs provide a great opportunity to educate families and promote healthy eating and I am wondering a little bit about these CAFPCC programs could help educate programs, serve as models.    I imagine that there is a capacity there to provide nutrition education, might vary a little bit between a large center and a smaller daycare home, but is there a role for us to support nutrition and nutrition education in CAFPCC? And others could weigh in, as well. Would like your thoughts on that program, please.</t>
   </si>
   <si>
@@ -592,9 +547,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. And thank you for starting sort of the opening bell here for the next reauthorization effort which you and I and a number of us up here were around for the last go around.    And, Mr. Scott, when his opening remarks noted that this program was created in 1946 in the wake of World War II and it was the Richard Russell Defense School Nutrition Act because the country found to its, I think, horror, that draftees were malnourished, and that this was seen as a sort of effective national federal strategy to sort of address that issue.    Fast forward to the last reauthorization, again, we had military testimony that was in those tables there, talking about the fact that one out of four enlistees were rejected because they were too heavy to serve. And the need for national nutritional standards was something that, again, the military in some ways sort of cut through a lot of the, you know, indecision in terms of getting a bill done.    In 2013, five four-stars from every branch, along with 450 of their senior military colleagues, issued a report called Retreat Is Not An Option, again, showing that the trend lines, in terms of, you know, what they are seeing coming in the door was still challenging and, again, I think, you know, expressed a pretty powerful support for maintaining the nutritional standards that were in the 2010 bill.    So, Mr. Chairman, first of all, for the record, I would like to have Retreat Is Not An Option entered into the record.</t>
   </si>
   <si>
@@ -619,9 +571,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you all for being here today. Very illuminating and I can see you all have a lot of enthusiasm for the topic.    I am going talk a little bit to Ms. Bauscher first. You talked about that the problems we have of kids throwing away their food, and I have had people lobbying me in my office on that topic and I hear anecdotal evidence of that from kids in my district. You mentioned that you were having more success and your children liked the kiwis but they were expensive. You brought that anecdote up for a reason. Do you feel if you had more money, maybe put a few more of those in the fruit cups or whatever, we could have more kids eat the food?</t>
   </si>
   <si>
@@ -661,9 +610,6 @@
     <t>412613</t>
   </si>
   <si>
-    <t>Mark DeSaulnier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman. Thank you, and the ranking member for bringing this up.    I want my comments in the context of somebody who has spent 35 years in the food service industry and is sympathetic to the comments by Ms. Bauscher. I know running restaurants, you couldn't make customers eat food that they didn't want to and pay for it, so. And having been a single parent, I understand the challenges in getting kids to eat what is good for them. But we have to separate food from nutrition and we started to just hit on this, so.    I want to talk about the overall context. So I was an author of one of the first local government menu labeling bills, in spite of the fact of being in the restaurant business in California. I was the co-author of the first state's menu labeling bill in the United States in California with a L.A. colleague. That has been in effect for about 8 years now, and we did that in response to the Center for Disease Control declaring a national epidemic when it came to obesity in America.    America has the second highest obesity rate in the world. We spend almost $200 billion a year on public health consequences for obesity, and where it has most impacted is amongst young people. So the way to do it is collectively and then most of it is around education. So menu labeling was letting parents know you are busy, you have to go through the drive in at Taco Bell but you can see the menu is changing now in fast food restaurants. You can see McDonald's now actually promoting to their investors that they are changing.    So, in that context, I always thought that this was the best investment the federal government could do, and along with education. Not telling parents or kids they have to eat it because they won't unless they know it is good for them. And then we know from a nutritional standpoint that your palate changes and adjusts.    And in terms of spoilage in California, what we found is that we have actually reduced spoilage when we use fresh ingredients. So in California, I know we are weird and we are different, but 66 percent of Republicans and 87 percent of Democrats in a recent Pew Charitable Trust poll said that they supported the current standards.    So in the context of my colleague from Virginia talking about cost, I view this as an investment. We change the cost curve when we invest in letting kids know that they can grow healthy foods in their school gardens, they can go in the kitchen afterschool programs and Dr. Krey and Mrs. McAuliffe's overall question is in regards to larger context, directed at Mrs. McAuliffe and if Dr. Krey wants to jump in there.    And then the secondary thing is intercession, summer school loss, both cognitively and nutritionally, and what a difference it makes for poor kids. So those are the two sort of general questions in terms of cost avoidance in investment in a broad scale, not just in this program, and to agree with education. That the best way to gets kids and parents to invest in good nutrition is to educate them to the cost in the long term, both cognitively and nutritionally.    Ms. McAuliffe?</t>
   </si>
   <si>
@@ -691,9 +637,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman. And I am having one of those days where I have got two of these going on at the same time. In fact, we were talking about nutrition over at Ag, and the food bank process and how that is working coordinating with the SNAP program.    But I represent Georgia's 12th district where roughly 31 percent of children have limited or uncertain access to adequate nutritious food. These kids come from great families but, because of economic times, you know, they struggle to make ends meet living paycheck to paycheck.    We all know how important child nutrition is and I thank you for your work in that area. And, you know, our school food programs ensure that kids have access to the foods.    Dr. Krey, you state in your testimony that 19.5 percent of American households with children are food insecure. Can you discuss what being food insecure means and how that impacts children specifically?</t>
   </si>
   <si>
@@ -731,9 +674,6 @@
   </si>
   <si>
     <t>412308</t>
-  </si>
-  <si>
-    <t>Jared Polis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman.    Last week in Colorado I got to visit the school nutrition services at Poudre School District in my district, which serves schools in Fort Collins area. And at Poudre School District they serve healthy, often locally-grown fruits and vegetables to students as part of their Farm-o-School initiative. The leaders of this school nutrition service at PSD are thrilled with upgrading the federal regs. In fact, due, in fact, part to whole grains, they have been able to attract 10 percent more families back to opt in to the district lunch program.    As an example of what they are serving then, they put their menu and recipes up at PSDSchools.nutraslice.com, PSDSSchools@nutraslice.com. Today, they are serving a General Tso chicken and steamed broccoli. Yesterday was lasagna with veggies, rotini with roasted spring veggies, and chicken, and steamed vegetables.    They have really found that offering healthy and nutritious food in excess of the federal nutrition standards actually helps pull families back into participating, which improves the economic viability of their paid lunch program and, of course, as well through scale, their free and reduced lunch program. They are very excited about bringing healthier foods to students and helping instill positive eating habits in schools.    Another school district in Boulder Valley School District in my district in Colorado, working with Chef Ann Cooper and the Ann Cooper Foundation, has implemented a large-scale food change. As Chef Ann Cooper says, who is the head of nutrition food services for Boulder Valley School District, she says, ``I envision a time soon when being a chef working to feed children fresh, delicious and nourishing food will no longer be considered renegade.''    Mrs. McAuliffe, I was wondering if you could talk more about initiatives like those in Poudre School District and Boulder Valley School District and others that can be replicated and encouraged through a reauthorization of the child nutrition act?</t>
@@ -1165,11 +1105,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1189,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1217,11 +1153,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1241,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1269,11 +1201,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1293,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1321,11 +1249,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1345,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1373,11 +1297,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1397,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1425,11 +1345,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1449,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1477,11 +1393,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1501,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1529,11 +1441,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1553,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1581,11 +1489,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1605,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1633,11 +1537,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1657,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1685,11 +1585,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1709,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1735,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1761,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1787,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1813,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1839,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1865,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1891,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1917,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1943,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1969,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1995,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2021,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2047,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2073,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2099,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2125,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2151,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2177,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2203,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2229,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2255,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2281,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2307,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2333,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2359,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2385,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2411,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2437,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2463,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2491,11 +2329,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2515,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2541,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2567,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2593,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2621,11 +2449,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2645,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2671,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2697,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2723,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2749,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2775,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2801,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2829,11 +2641,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2853,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2879,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2905,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2931,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2957,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2983,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3009,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3035,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3063,11 +2857,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3087,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3113,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3139,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
-      </c>
-      <c r="G78" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3165,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3191,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3217,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3243,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
-      </c>
-      <c r="G82" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3269,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3295,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>101</v>
-      </c>
-      <c r="G84" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3321,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3347,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>101</v>
-      </c>
-      <c r="G86" t="s">
-        <v>102</v>
-      </c>
-      <c r="H86" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3373,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3399,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3427,11 +3193,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3451,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3477,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3503,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3529,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3555,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3581,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3607,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3633,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3659,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3685,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3711,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
+        <v>105</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
         <v>116</v>
-      </c>
-      <c r="G100" t="s">
-        <v>117</v>
-      </c>
-      <c r="H100" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3737,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3763,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3789,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3815,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
+        <v>105</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
         <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>117</v>
-      </c>
-      <c r="H104" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3841,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3867,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3893,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
-      </c>
-      <c r="G107" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3919,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3945,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3971,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3997,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4023,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4049,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4075,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4101,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>116</v>
-      </c>
-      <c r="G115" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4127,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4153,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>116</v>
-      </c>
-      <c r="G117" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4179,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4207,11 +3913,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4231,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
-      </c>
-      <c r="G120" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4257,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4283,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>147</v>
-      </c>
-      <c r="G122" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4309,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4335,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>147</v>
-      </c>
-      <c r="G124" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4361,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4387,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
-      </c>
-      <c r="G126" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4413,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4439,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>147</v>
-      </c>
-      <c r="G128" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4465,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4491,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>147</v>
-      </c>
-      <c r="G130" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4517,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
+        <v>135</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
         <v>147</v>
-      </c>
-      <c r="G131" t="s">
-        <v>148</v>
-      </c>
-      <c r="H131" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4543,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4569,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" t="s">
-        <v>148</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4597,11 +4273,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4621,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4647,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4673,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G137" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4699,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4725,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4751,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4777,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>164</v>
-      </c>
-      <c r="G141" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4805,11 +4465,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4831,11 +4489,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4855,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>175</v>
-      </c>
-      <c r="G144" t="s">
-        <v>176</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4881,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4907,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>175</v>
-      </c>
-      <c r="G146" t="s">
-        <v>176</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4933,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4961,11 +4609,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4985,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>175</v>
-      </c>
-      <c r="G149" t="s">
-        <v>176</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5011,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>175</v>
-      </c>
-      <c r="G150" t="s">
-        <v>176</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5039,11 +4681,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5063,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5089,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5115,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5141,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5169,11 +4801,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5195,11 +4825,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5219,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>191</v>
-      </c>
-      <c r="G158" t="s">
-        <v>192</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5247,11 +4873,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5271,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>191</v>
-      </c>
-      <c r="G160" t="s">
-        <v>192</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5297,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5323,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>191</v>
-      </c>
-      <c r="G162" t="s">
-        <v>192</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5349,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5375,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5403,11 +5017,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5427,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>200</v>
-      </c>
-      <c r="G166" t="s">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5453,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5479,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>200</v>
-      </c>
-      <c r="G168" t="s">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5505,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
-      </c>
-      <c r="G169" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5531,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>200</v>
-      </c>
-      <c r="G170" t="s">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5557,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5583,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>200</v>
-      </c>
-      <c r="G172" t="s">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5609,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5635,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>200</v>
-      </c>
-      <c r="G174" t="s">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5661,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5687,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>200</v>
-      </c>
-      <c r="G176" t="s">
-        <v>201</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5715,11 +5305,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5739,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>214</v>
-      </c>
-      <c r="G178" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5765,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5791,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>214</v>
-      </c>
-      <c r="G180" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5817,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5843,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>214</v>
-      </c>
-      <c r="G182" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5869,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
-      </c>
-      <c r="G183" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5895,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>214</v>
-      </c>
-      <c r="G184" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5923,11 +5497,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5947,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>224</v>
-      </c>
-      <c r="G186" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5973,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>24</v>
-      </c>
-      <c r="G187" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5999,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>224</v>
-      </c>
-      <c r="G188" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6025,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>24</v>
-      </c>
-      <c r="G189" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6051,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>224</v>
-      </c>
-      <c r="G190" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6077,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>224</v>
-      </c>
-      <c r="G191" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6103,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>24</v>
-      </c>
-      <c r="G192" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6129,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>224</v>
-      </c>
-      <c r="G193" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6155,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>224</v>
-      </c>
-      <c r="G194" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6181,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6207,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>224</v>
-      </c>
-      <c r="G196" t="s">
-        <v>225</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6235,11 +5785,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6259,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>238</v>
-      </c>
-      <c r="G198" t="s">
-        <v>239</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6285,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>24</v>
-      </c>
-      <c r="G199" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6311,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>238</v>
-      </c>
-      <c r="G200" t="s">
-        <v>239</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6337,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>24</v>
-      </c>
-      <c r="G201" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6363,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>238</v>
-      </c>
-      <c r="G202" t="s">
-        <v>239</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6389,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>24</v>
-      </c>
-      <c r="G203" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6417,11 +5953,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6441,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6469,11 +6001,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6493,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6521,11 +6049,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94088.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Kline. A quorum being present, the committee on Education and the Workforce will come to order.    Well, good morning. Welcome to our guests. We have a very distinguished panel of witnesses today, including the First Lady of the Commonwealth of Virginia, Mrs. Dorothy McAuliffe.    Mrs. McAuliffe, we are delighted to have you with us this morning as we discuss important policies affecting our nation's students and families.    Healthy meals are vitally important to a child's education. It is just basic common sense that if a child is hungry, then he or she is less likely to succeed in the classroom and later in life. That is why our nation has long invested in services to provide low income students nutritious meals in schools. Those services are authorized through a number of laws, such as the Richard B. Russell National School Lunch Act and the Child Nutrition Act.    In just a few short months, these laws and the programs they authorize will expire, including the National School Lunch and Breakfast Programs, the Supplemental Nutritional Program for Woman, Infants and Children, or WIC program, and several others.    It is the responsibility of this committee and Congress to reauthorize these programs so that students and families receive the support they need in the most efficient and effective way. Why is that important? Because no child should go to school hungry. It is that simple.    Today's discussion is not about whether we agree on this basic principle; I am confident we all do. Instead, our discussion today is about beginning a larger effort we will continue in the coming months to ensure the best policies are in place to help us reach this goal.    Last week, I had an opportunity to tour a school lunch room at the Prior Lake High School in Savage, Minnesota. Students and faculty described what's working and what isn't working in federal nutrition programs.    As a result of our conversation, two important realities are abundantly clear. First, our school nutrition professionals are dedicated men and women doing the best they can under difficult circumstances and no one should question their commitment to providing students with nutritious meals.    Unfortunately, rules and regulations put in place in recent years have made their jobs harder, not easier. The cost of the lunch and breakfast programs for schools are going up, yet fewer meals are being served. In fact, the number of children participating in these programs is declining more rapidly than any period over the last 30 years.    Second, as we reauthorize these programs, we have to provide more flexibility at the state and local levels. Those working in our schools and cafeterias recognize that this has to be a priority. Even students understand the urgent need for more flexibility.    During my visit to Prior Lake High School, I talked with a number of students about their school lunch program. Right now, the federal government determines the number of calories, vegetables, and grains that are served to students, which means Washington is dictating how much food every child is served at every school meal. This is one reason why the students in this school are urging the school to drop out of the program.    Many children are bringing food from home or buying more food because the portion sizes served at school are too small for a full meal. As one student, Perina Svigem noted, ``A lot of times, we are going back and getting junk food, not healthy food.''    This isn't what these children want, this isn't what their parents and school administrators want, and it is not what we want either. We have to find a better way forward, one that continues our commitment to providing nutritious meals for America's students while giving state and school leaders the flexibility they need to make it a reality.    That is why we are delighted to have you here today, Mrs. McAuliffe. Through your work, you are demonstrating that promoting healthy lifestyles is not just a federal priority, but a state and local priority, as well.    Often we are told we need more federal involvement because states can't be trusted to help those in need. But through your leadership, you are showing states can take the lead on tough issues in partnership with the federal government.    Again, I would like to thank all of our witnesses for participating in today's hearing, and working with us to strengthen child nutrition support.    With that, I will now recognize the committee's ranking member, my colleague, Congressman Scott from the Commonwealth of Virginia for his opening remarks.</t>
   </si>
   <si>
     <t>400364</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman, for holding this hearing, and I look forward to examining the continuum of federal child nutrition programs which are the lifelines for approximately 40 million children who rely on them for healthy food every day.    I would like to extend my thanks to all of the witnesses, but especially the First Lady of my home state of Virginia, Dorothy McAuliffe. She has been focusing not only on ending childhood hunger, but also improving access to Virginia's fresh and locally-grown agricultural commodities. This dual goal helps children, supports our farmers and strengthens local economies.    More than 60 years ago, through the enactment of the first federal child nutrition program, the National School Lunch Act of 1946, Congress recognized that feeding hungry children was not just a moral imperative but also an imperative for the health and security of our nation.    Today, a majority of the American public school students, 51 percent, are eligible for free and reduced school lunch prices. According to the latest USDA data, 15.8 million, or over 21 percent of children live in households facing a constant struggle against hunger. The rates are nearly double for African-American children at almost 40 percent, and significantly higher for Hispanic children at almost 30 percent.    The continuum of child nutrition programs and policies that we will be discussing today are vital to the long-term successes of our nation's children and, through them, our nation itself. Through WIC prenatal programs to school and summer meals and child care food programs, participation in these programs has resulted in positive health outcomes for low income children and are 4:1 return on investment. For example, WIC saves over $4 for every $1 invested in the program due to fewer low birth-weight and pre-term babies, which costs our nation over $26 billion a year.    Hunger is linked to lower student achievement and poorer behavioral outcomes. These programs are powerful tools in providing greater economic opportunities for at-risk youth and helping them break free of the tragic cycle of poverty.    While access to food is vitally important, equally important is access to nutritious, high-quality food. But 30 million children rely on the national school lunch and breakfast programs. Students consume up to half of their daily calories while at school, and, for many children, school-based meals are their primary source of nutrition.    Foods that are too high in fat and sugar have been linked to weaker educational and behavioral outcomes. They also lead to childhood obesity and long-term health consequences as adults, including heart disease, hypertension and diabetes. Approximately 10 percent of our nation's health care spending go towards treating conditions related to obesity and unhealthy weight.    To address these challenges in 2010, Congress enacted the Healthy Hunger-Free Kids Act. In addition to expanding access to child nutrition programs, the law also updated and improved the nutritional standards for foods served to our children, standards that had not been revised in over 15 years.    Most importantly, the new standards are based on scientific evidence, not politics or fiscal bottom lines. They include weekly limits on calories, sugar, fat and sodium, require fruits and vegetables at every meal and incorporate whole grains. These changes are not promoting an exotic diet fad; they conform to the healthy eating habits that most of us in this room try to follow every day.    In the vast majority of districts, 93 percent across the country, are successfully implementing the new health standards today and students are eating more fruit and vegetables, not just at school, but also outside of school, too.    As we focus on healthier foods for children, we cannot ignore that child nutrition is a national security issue. According to Mission Readiness, a group of retired officers who support healthy meal standards, 25 percent of young Americans are too overweight to enlist in our nation's military.    So I am pleased that today we have an opportunity to discuss the scope and impact of federal child nutrition programs, and, hopefully, ways to improve and strengthen them. And, as we move through this process, we must keep in mind that the overarching goal of these programs is to provide children with healthy foods that can support them as they learn and grow. That, in turn, supports our national interests and long-term economic prosperity.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412605</t>
   </si>
   <si>
+    <t>Brat</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brat. Thank you, Mr. Chairman.    First of all, it is an honor to have our First Lady from Virginia with us today. Thank you for being here.    I am going to introduce Mr. Duke Storen. Duke is a national policy expert with extensive experience researching and managing child nutrition programs. He hails from my Central Virginia district, as well, and serves as senior director of research for Share Our Strength.    Share Our Strength is an organization that works to end childhood hunger in America by connecting kids to effective nutrition programs. It also teaches low income families how to shop and cook healthy food on a budget. Parents learn to shop strategically, using nutrition information to make healthier choices and cook good, affordable meals.    Before coming to Share Our Strength, Mr. Storen worked at the USDA under two administrations managing child nutrition programs and leading efforts to improve access to them. He has 22 years of experience fighting hunger and addressing poverty, and has consulted with state governments on using technology to improve program effectiveness and efficiency.    Today he will share some ideas on how to make federal nutrition programs more effective and efficient.    Pleasure to have you with us today.    And, Mr. Chairman, I yield back. Thank you.</t>
   </si>
   <si>
@@ -82,24 +103,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Storen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Storen. Good morning, Chairman Kline, Ranking Member Scott and members of the committee. Thank you for holding this important hearing and inviting me to testify today.    It is truly an honor, as ending hunger in America is my vocation, and it has been my life's work. I spent more than 20 years in every sector and at all levels, local, state, and national and community organizations, state government, federal government, at university, technology consulting, and now at Share Our Strength, a national not-for-profit organization that has been on the front lines of fighting hunger and poverty for more than 30 years.    At Share Our Strength, we invest in and implement data-driven programs in all 50 states, and we conduct research to find and replicate solutions that are sustainable. Our No Kid Hungry campaign seeks to end childhood hunger in America by breaking down the barriers between programs like school breakfast and the Summer Food Service Psummer food service rogram, and the kids they are meant to serve.    We create public-private partnerships, working with states and governors on both sides of the aisle to make the federal programs work more efficiently and more effectively. At the same time, we work to empower low income families to maximize their food resources.    Why is this work so important? Because 16 million children in the United States struggle with hunger, and we cannot have a strong America with weak kids. Hunger might not be visible in America as it is in other parts of the world but it lives everywhere, and we have a responsibility to solve this problem.    Hunger affects one in five children. Hunger is in your congressional district. Hunger is in our schools. For the first time, more than half of all the children coming to school are from low income families, and we know from our survey of teachers that three out of four teachers regularly see the face of hunger in their classrooms. And they understand the profound connection between hunger, behavior, and learning. Educators spend over $420 of their own money each year to help mitigate this problem.    Childhood hunger is at its worst during the summer months, when school meals are no longer available. Over four in 10 low income parents report not having enough food to feed their families during the summer. And that is why an effective summer feeding program should be a priority in child nutrition reauthorization.    But there is good news. Childhood hunger in America is a solvable problem, and the child nutrition programs are central to that solution, thanks to the support of you in Congress.    For decades, public-private partnerships have been at the core of this solution, allowing community organizations, schools, faith-based groups and private companies to come together to address this issue. We know that none of these groups could solve the problem of childhood hunger alone, but by all of us working together, we can more efficiently leverage the existing resources.    When kids can participate, the programs help them learn, become healthier, and grow into stronger adults. For example, the school breakfast program has a clear effect on academic achievement. A Deloitte social impact analysis shows that students who eat breakfast at school score 17.5 percent higher on math tests, they attend more days of school, and, together, these benefits make them 20 percent more likely to graduate and earn an average of $10,000 more per year.    However, while these programs work for the kids that can participate, too many eligible children can't participate because of bureaucratic barriers, too much administrative burden, and, for the summer months, a program that has not been updated in over 40 years and serves fewer than one in six children in need.    Through child nutrition reauthorization, Congress has an opportunity to make practical policy changes to fix the summer meals program and to make the other child nutrition programs even more efficient.    It is unacceptable for any child in America to go hungry. And thanks to a bipartisan commitment from Congress, we have strong, sustainable programs in place to help struggling families feed their kids and get to work. But it is critical that we take this opportunity to create more efficiencies in the federal nutrition programs so that we can let kids be kids.    Thank you for the opportunity to speak today, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, Mr. Storen.    Ms. Bauscher, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Bauscher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bauscher. Chairman Kline, Ranking Member Scott, members of the committee, on behalf of the School Nutrition Association's 55,000 members, thank you for the opportunity to discuss the vital role of school meal programs.    School nutrition professionals know the meals we provide can be the most nutritious meals that many children receive. We are passionate about supporting the 30 million students we serve every day. Our job is to nourish them for a successful school day and help them make healthier choices.    Too often in schools across the country, students line up early at the cafeteria door on Monday mornings, hungry for school breakfast after a weekend without enough food to eat at home. We all know growling stomachs can easily distract students, affecting their academic achievement.    With Congress' support, we have been working diligently to meet students' nutritional needs so they can give teachers their full attention. We are improving school lunch, expanding breakfast, and offering more afterschool snacks, suppers and summer meals so students have access to healthy meals, even when school is not in session.    These supplementary meals not only ease food insecurity among students, but also strengthens school meal programs. The more meals and snacks we serve, the less likely our programs will become a financial burden on school district budgets.    To ensure we contribute to healthier diets, SNA members support new regulations limiting calories and unhealthy fat in school meals. We are proud to offer more whole grains, larger servings and a wider variety of fruits and vegetables, and menus with less sodium.    Schools are committed to making these healthy choices appealing with initiatives like Taste Test, Farm-to-School, and Cornell University's Smarter Lunchroom Techniques. In my district, we have steadily increased the quantity of local foods we serve, and work with a local chef to make nutritious recipes delicious.    School nutrition professionals do not want to lose ground on these improvements. SNA will continue to support healthy changes. But Congress must address the sharp increase in cost and waste and the historic decline in student lunch participation under the new rules.    For 30 years, the National School Lunch Program has grown steadily. Under the new rules, 1.4 million fewer students choose school lunch each day. Paid lunch participation has fallen by 15 percent, as students opt out of healthy school meals too often in favor of less nutritious alternatives.    SNA is encouraged to see participation in the free meal category climb, with schools' access to the community eligibility provision. In the 96 schools in my district participating in CEP, daily lunch participation is up 8 percent, and no one has to worry about embarrassing a student without lunch money.    However, schools outside of high poverty areas do not qualify for CEP. These schools struggle the most with decreasing participation which reduces revenue when costs are rising. This year schools must absorb $1.2 billion in added costs as a result of the new rules. Even in my district where CEP has increased revenue, I am experiencing a decline in my program's reserve fund.    School meal programs operate on extremely tight budgets. We must cover labor and benefits, supplies, equipment, indirect and other costs, leaving about $1.25 to spend on the food for each lunch tray. This year, each half pint of milk costs my program a nickel more than last year. That one nickel adds over $700,000 in new expenses.    Meanwhile, a half-cup of fresh fruit, on average, costs me 38 cents. This year, I reluctantly added juice back to my high school lunch menus as a cost saving measure. I haven't served juice at lunch in 15 years in an effort to serve more fiber-rich, whole fruits.    School meal programs can only cut so much. Without some relief, increased costs will impact more than the school meal programs; they will impact school district budgets as a whole. SNA has been supporting members in addressing all these challenges and will continue these efforts. We are working with partners, including Share Our Strength, on initiatives like best practices webinars and education sessions, and we are working with USDA on its Team Up for School Nutrition Success Initiative.    We appreciate the committee's recognition of the importance of strong school nutrition programs and your consideration of the school cafeteria perspective. SNA's members will be a resource in ongoing discussions. We encourage all members of Congress to visit a school cafeteria and talk with school nutrition professionals about their unique successes and challenges.    Thank you, again, for inviting me here today, and I am happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you, Ms. Bauscher.    Mrs. McAuliffe, you are recognized.</t>
   </si>
   <si>
+    <t>McAuliffe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. McAuliffe. Thank you. Thank you, Mr. Chairman, Ranking Member Scott and members of the committee for having me here today.    I am so grateful for the opportunity to be here this morning as you consider the reauthorization of our federal childhood nutrition programs. We all agree that nothing is more important to our future as a nation than the health, education and well-being of our next generation.    I know that much of your deliberations around this reauthorization will focus on what and how we serve our students and families through our nutrition programs. But my hope for my own testimony today is to make sure we remember why these programs are so important.    I come to this, first and foremost, not as a nutritional or educational expert, but simply as a mom. Programs like CEP, school breakfast, and summer food service are the best way we can help ensure our children in need take full advantage of the educational opportunities our schools provide and our taxpayers invest in.    In Virginia alone, we invest $5.5 billion in education. If we want to capture our return on that investment, we have to make sure our students are ready and able to learn when they are in our classrooms. It is both staggering and tragic to learn that, for the first time in at least 50 years, a majority, 51 percent, of public school children in the United States qualified for free and reduced lunches.    In Virginia, over 300,000 of our children are food insecure. That's one in six of our children. The impact of hunger and malnutrition on children is devastating, well documented, and obvious to anyone who is a parent or works with children.    For many children across the country and across Virginia, the meals they receive at school are the most consistent and best meal of the day. How do we prepare the next generation for the jobs of the 21st century if kids aren't strong, healthy and well educated? How can we expect our children to be hungry for knowledge if they are just plain hungry?    I have heard from administrators and teachers all across our state who agree that a hungry child cannot learn. One was Susan Mele, the principal at Stewartsville Elementary School in the rural community of Bedford County. Behavioral problems, tardiness and absenteeism are just a few of the effects of hunger Susan has witnessed in her school.    To respond to these challenges, Susan has combined universal school breakfast with responsive classroom, an approach to teaching that incorporates social-emotional learning as part of the academic day. Susan has seen an increase of 2 percentage points in overall student attendance, plus a significant decrease in trips to the office and tardy arrivals. And the result, Susan has seen a significant increase in academic performance.    Pamela Smith is a principal at Highland View Elementary School in Bristol in Southwest Virginia. Unfortunately, in a school like Highland View where issues of neglect, trauma and mental health are far too prevalent, Pamela has to meet the most basic needs of her students before she and her staff can even begin to teach.    Not only does Pamela make sure that her students start the day with a healthy meal, which she does with great success, but in many cases, the students need to be checked for bruises, be given clean clothes for the day, have their teeth and hair brushed, and just be loved and listened to.    What Pamela and her teachers and staff are doing for these children is, frankly, above and beyond what any school should be tasked with managing. But it is the reality in which far too many must operate. Pamela has done a tremendous job of reaching the needs of her students during the school year, but an area of constant concern is the summer slide. After 9 months of working to bring students up to grade level, 3 months of hunger and unmet basic needs can set students back so far that it leaves Pamela feeling like her kids are trapped in a consistent cycle of one step forward and two steps back.    Working within the current restrictions of the Summer Food Service Program, the challenge of reaching kids in a predominantly rural community has made it tough to put the brakes on the summer slide. As parents, we strive to be supportive of our children's intellectual growth by encouraging them to find their passions and pursue their dreams. It is a tragedy that not all children in Virginia and the United States look out on the world and see the endless possibilities that we know should be there for them. But that is exactly why we are here.    It is our responsibility as public servants to be advocates for the children of this great nation. When three out of four public school teachers say that they have students who consistently come to school hungry, we have to ask ourselves how can we better serve the children who need us most.    When students eat school breakfast, teachers report profound results. Seventy-three percent see kids paying better attention in class, 53 percent see improved attendance, and 48 percent see fewer disciplinary problems.    But with results like these, why are only half of the students who are eligible for free or reduced-price breakfast getting one? And why are only one in seven participating in the summer meals program?    I am confident that your deliberations will uncover better ways to serve children and families through our federal nutrition programs. In Virginia, we look forward to partnering with you to find and implement those solutions. Working together, I know we can guarantee that all of our children are fed and fed well.    Thank you very much. I look forward to the questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Kline. Thank you very much.    Dr. Krey, you are recognized.</t>
   </si>
   <si>
+    <t>Krey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Krey. Thank you.    Chairman Kline, Ranking Member Scott and members of the committee, I thank you for the opportunity to appear before you today to discuss the importance of child nutrition programs for students and families.    My name is Kathy Krey and I am the director of research at the Texas Hunger Initiative at Baylor University. THI developed strategies to end hunger through research, education and community development. We convene federal, state and local government with non-profits, faith-based groups and business leaders to increase food security.    Child nutrition programs are an important resource for lessening the effects of food insecurity. These programs are instrumental in ensuring that students from low income families, especially, have access to healthy meals throughout the year.    In Texas, it is estimated that 27 percent of children live in food insecure households, which is higher than the national average, meaning, they have difficulty meeting basic food needs at least some time during the year. THI and its partners across our state have fostered public-private partnerships to maximize the reach and efficiency of child nutrition programs.    Public challenges like food insecurity pertain to more than one jurisdiction by nature. Therefore, they require a response that exceeds the capabilities and resources of any one department or organization. And collaboration provides a way to stretch resources to accomplish more with less.    The administration and coordination of child nutrition programs present unique opportunities for public-private partnerships to take shape. Through actors such as the Texas Department of Agriculture, schools, non-profits, congregations and foundations, community-based resources like funding, volunteers and space are pooled and maximized.    The need for meals is especially high during summer months for Texas children when school is not in session. The summer meals program is one way to ensure that children receive health meals. Schools, non-profits and local municipality service sponsors and have meal sites within their regions.    In Texas, about 300,000 kids a day participate in the summer meals program, and regular access to healthy meals in the summer is important, not just for students' health, but for students' academic well-being. We know that inadequate nutrition can intensify summer learning loss, especially for low income students who can lose up to twice the ground of other students during summer months.    Additionally, after-school snacks and meals can help relieve financial burdens for working parents and provide support for schools and non-profits that run afterschool enrichment programs so they can provide healthy meals. In Texas, in 2014, we served an average of 51,000 meals a day in afterschool programs.    In addition, school meal programs like school breakfasts are important to a successful school day, especially for low income children who might not have access to breakfast at home. In Texas, more than 1.7 million students start their day with school breakfast, including 1.5 million low income students. Eating breakfast is associated with positive student outcomes, including improved attention and memory, and decreased disciplinary action.    School meals offer all students better opportunities to succeed in school, especially children at risk of missing meals at home.    Following are examples of public-private partnerships in Texas that supplement and maximize federal funding and state administration of child nutrition programs. In the Rio Grande Valley, Catholic Charities utilizes the Summer Food Service Program to sponsor over 75 summer meal sites. And they collaborate with churches and non-profits in their area to support these sites, including a local non-profit that provides activities for kids and classes for adults in the summer, and a national non-profit that provide books and educational programming at summer meal sites.    These churches and non-profits coordinate their efforts by sharing volunteers, serving meals and providing activities. In East Texas, THI partners with the local community food coalition and local farmers to redistribute excess food from a local farmer's market to summer meal sites. The program includes educating families on healthy eating habits and cooking lessons. These partnerships link families with existing services in the community to improve quality of life.    Child nutrition programs are necessary to curb the effects of food insecurity. Public-private partnerships bridge local, state and federal resources to maximize the efficiency and reach of these programs so that children can stay fueled for learning all year round.    Thank you for the opportunity to speak.</t>
   </si>
   <si>
@@ -217,6 +250,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman. Thanks for the precedent that you have given, and your leadership. Thank you for this hearing, actually. Incredibly important topic that we talk about fueling our next generation and all future generations.    And thanks to all the panelists for being here for your testimony, your passion, your expertise on an important issue.    Ms. Bauscher, you know, thank you to you and all those that you represent in your association. I spend a lot of time at schools, but I also spend times--the passion, the commitment of the professionals who work in school nutrition, we meet in the community, they come to the office, not just in the school, and I appreciate their leadership and what they do in our schools.    I believe as a result of the most recent federal school nutrition standards, we have seen a sharp decline in the participation of school meal programs. I mean, that is what I am seeing as I get around a lot of my congressional district, which is just about a quarter of the state of Pennsylvania, geographically.    Since fewer students are eating lunch in the cafeteria, they are more at risk of under-consuming the recommended amounts of fruits, vegetables, whole grains and milk. And, notably, 1.1 million fewer students drank milk with lunch during the 2014 school year than compared to 2012.    I would like to reference a new report from the National Dairy Council that highlights the nutritional importance of milk and stresses concern for recent consumption declines. Report underlines that milk is the number one source of nine essential nutrients in young Americans' diets and provides multiple health benefits, including better bone health, lower blood pressure, and reduced risk of cardiovascular disease and Type 2 Diabetes. If today's school students are falling even further behind in milk consumption, it should be easy to agree that action is needed.    You know, my question for you is, given your hands-on experience and the hands-on experience of those that you represent today, and the extensive background with school nutrition, do you agree that this is a concern? And, additionally, what can be done on a federal level to help you increase the average daily participation in the school milk programs?</t>
   </si>
   <si>
@@ -235,6 +274,12 @@
     <t>400179</t>
   </si>
   <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Kline and Ranking Member Scott.    I want to thank you all for bringing this panel to talk to us about something very, very important and concerns that we have in Congress.    The Centers for Disease Control tell us that over the past three decades, childhood obesity rates have tripled. Nearly one out of every five American children between the ages of 6 and 19 are obese. That is a national crisis that these programs are designed to address.    Nutrition is directly connected to how well those children do in the classroom, as stated before. Ask any teacher and they will tell you that if children don't have nutrition in the morning, if there is not food in their homes and they come to school hungry, they start to act out in class because they start to drift.    In addition to hunger, we are also fighting a national concern, the scourge of childhood obesity. This concern is found in all 50 states, in both young children and adolescents. It affects our social and economic levels.    The school breakfast lunchroom programs make a difference because they provide more than 50 percent of a student's food and nutrient intake on school days. Child nutrition is at the heart of our social safety net and the safety of all of our children, and these programs have been overwhelmingly successful and they have been cost effective.    Childhood obesity and diabetes are reaching epidemic proportions in both the Hispanic community and the black community across the nation. We must do more to help all young people develop healthy lifestyles.    I could speak about the Rio Grande Valley of South Texas where approximately 85 percent of the students in our region participate in free and reduced meals in our school meal program. According to USDA, one in every three Hispanic and black households with children is food insecure and may not know when the next meal will be available.    Twenty-seven percent of Texas children, as stated before, one in four, live in food insecure households, the second highest rate in the whole country. The source of this data is found in USDA/Feeding America.    I was born and raised in Hidalgo County where more than half of the residents are on food stamps, and they have all these children who are participating. That is why I fully support these new child nutrition programs and believe we should continue to strengthen them, not to weaken them.    My first question is to First Lady McAuliffe. What are the effects on children that Virginia has seen because of your efforts on summer food and school breakfast?</t>
   </si>
   <si>
@@ -262,6 +307,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman, and I appreciate being here and having Ms. Bauscher here from Kentucky and, First Lady, I will say I drive every now and then--about twice a year and it is always a pleasure to drive through Virginia. What a beautiful state.</t>
   </si>
   <si>
@@ -292,6 +343,12 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you very much, Mr. Chairman. And I thank you all for your testimony today.    Just want to make a couple of comments before I get to my question.    One, certainly, we all understand that we can do better, that we can find better ways to feed hungry children. But I do also want to say that I can understand why wealthy school districts do have a problem because these programs were not designed to help wealthy kids. And so we have to look at it from that perspective. So I can understand if they want to opt out it might be difficult because it is not designed for them.    Now, let me just get to my questions. And I am going to ask everybody the same question. There was a lot of discussion about summer feeding programs which I am especially concerned about because I do represent a district that has more than a 20 percent poverty rate, and in my schools, it is significantly higher, of poor children. So if each one of you can just tell me what you think we can do to make our summer feeding program better. Just one thing you think will make a change, I would appreciate that, as succinctly as possible.    Mr. Storen?</t>
   </si>
   <si>
@@ -334,6 +391,12 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rokita. I thank the Chairman. I thank the witnesses for their testimony and their leadership on this issue. It is really appreciated.    I want to focus some of my questions around the bureaucracy, maybe in these programs generally and what you do and maybe even if you see some waste, fraud and abuse.    But, Mr. Storen, starting with you, you mentioned bureaucratic inefficiency in your testimony. Can you give me some specific examples?</t>
   </si>
   <si>
@@ -424,6 +487,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman. Thank you to all of you for being here.    I wanted to follow up on the discussion on summer meals earlier and, to you, Mr. Storen, I know you have had some experience with this. What role can the electronic benefit transfer play? We know that the pilot program has been seen as effective and the issue really here, in addition to some others, I think, how do you bring that to scale? And what issues do you think need to be addressed?</t>
   </si>
   <si>
@@ -472,6 +541,12 @@
     <t>412446</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chair. Thank you all for being here.    I represent the Clark County School District in Southern Nevada where about 58 percent of its almost 320,000 students are on free and reduced lunch.    We are fortunate in my community to have the Three Square food bank organization that provides a lot of services to our students, including backpack for kids, so they go home on Friday with a backpack of food to carry them through the weekend. They participate in feeding for America's Kids Cafe and they also provide summer feeding services.    Mr. Storen, you have mentioned that too many eligible children can't participate in some cases during the summer months because the program has not been updated in 40 years. What types of updates are necessary so that more children can participate?</t>
   </si>
   <si>
@@ -502,6 +577,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman.    And thank you, Chairman Kline and Ranking Member Scott, for holding today's hearing.    And thank you to all the witnesses for being here to talk about this important issue that has historically been bipartisan. I am really looking forward to working with all my colleagues to take ambitious steps to ensure that fewer children have to worry about where they are going to get their next meal.    And I really appreciate Mr. Rokita bringing up the efficiencies and thank you for your ideas on that. Let us make this work better for more children.    My home state is already doing some great work but still facing some challenges. Just recently our governor signed a bill to eliminate copays for school lunch. I know that other states, Minnesota, Colorado, Vermont, have some variations of this. It is going to affect roughly 30,000 Oregon children who had qualified for reduced-price lunch; it will now be free lunch. We are removing a barrier for many of them.    We also have been doing an Oregon summer EBT for children program. The pilot programs doing EBT transfers for children have seen a significant, up to a third, reduction in child hunger through this program. It has worked well in our pilot in Oregon. We should talk about expanding that because with that significant reduction in hunger, there is a lot of potential there especially with the summer programs.    So it is clear that we need to take action and I know that many of you discussed, of course, how it is difficult for children to learn if they are hungry. It is really in our best interest. In a country like ours where we have so much, it is just wrong for students to be hungry, for children to be hungry.    I thank Representative Fudge who apparently has left for her work on Farm-to-School programs, really important in our state of Oregon, I actually joined one of my colleagues and had lunch at an elementary school that does a Farm-to-School program. We had great fun. It was really good food, too.    So there is, again, a win-win to work on those. Actually, it is a win-win-win because the children get more nutritious food, it supports local agriculture, but it also educates students about the source of their food.    So I wanted to focus on childcare settings and talk about the importance of making sure that children in child care settings can get a late afternoon snack or supper when their parents have to work late, for example.    So I want to ask you, Mr. Storen--first of all, thank you for acknowledging that this is a shared responsibility. It is an important role for Congress but there are also a lot of partnerships with our faith community, our non-profits, our parents.    Can you talk, Mr. Storen, about some of the steps that we could take to promote a provider's participation in the Child and Adult Care Food Program? Child nutrition programs provide a great opportunity to educate families and promote healthy eating and I am wondering a little bit about these CAFPCC programs could help educate programs, serve as models.    I imagine that there is a capacity there to provide nutrition education, might vary a little bit between a large center and a smaller daycare home, but is there a role for us to support nutrition and nutrition education in CAFPCC? And others could weigh in, as well. Would like your thoughts on that program, please.</t>
   </si>
   <si>
@@ -547,6 +628,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. And thank you for starting sort of the opening bell here for the next reauthorization effort which you and I and a number of us up here were around for the last go around.    And, Mr. Scott, when his opening remarks noted that this program was created in 1946 in the wake of World War II and it was the Richard Russell Defense School Nutrition Act because the country found to its, I think, horror, that draftees were malnourished, and that this was seen as a sort of effective national federal strategy to sort of address that issue.    Fast forward to the last reauthorization, again, we had military testimony that was in those tables there, talking about the fact that one out of four enlistees were rejected because they were too heavy to serve. And the need for national nutritional standards was something that, again, the military in some ways sort of cut through a lot of the, you know, indecision in terms of getting a bill done.    In 2013, five four-stars from every branch, along with 450 of their senior military colleagues, issued a report called Retreat Is Not An Option, again, showing that the trend lines, in terms of, you know, what they are seeing coming in the door was still challenging and, again, I think, you know, expressed a pretty powerful support for maintaining the nutritional standards that were in the 2010 bill.    So, Mr. Chairman, first of all, for the record, I would like to have Retreat Is Not An Option entered into the record.</t>
   </si>
   <si>
@@ -571,6 +658,9 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. Thank you all for being here today. Very illuminating and I can see you all have a lot of enthusiasm for the topic.    I am going talk a little bit to Ms. Bauscher first. You talked about that the problems we have of kids throwing away their food, and I have had people lobbying me in my office on that topic and I hear anecdotal evidence of that from kids in my district. You mentioned that you were having more success and your children liked the kiwis but they were expensive. You brought that anecdote up for a reason. Do you feel if you had more money, maybe put a few more of those in the fruit cups or whatever, we could have more kids eat the food?</t>
   </si>
   <si>
@@ -610,6 +700,12 @@
     <t>412613</t>
   </si>
   <si>
+    <t>DeSaulnier</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSaulnier. Thank you, Mr. Chairman. Thank you, and the ranking member for bringing this up.    I want my comments in the context of somebody who has spent 35 years in the food service industry and is sympathetic to the comments by Ms. Bauscher. I know running restaurants, you couldn't make customers eat food that they didn't want to and pay for it, so. And having been a single parent, I understand the challenges in getting kids to eat what is good for them. But we have to separate food from nutrition and we started to just hit on this, so.    I want to talk about the overall context. So I was an author of one of the first local government menu labeling bills, in spite of the fact of being in the restaurant business in California. I was the co-author of the first state's menu labeling bill in the United States in California with a L.A. colleague. That has been in effect for about 8 years now, and we did that in response to the Center for Disease Control declaring a national epidemic when it came to obesity in America.    America has the second highest obesity rate in the world. We spend almost $200 billion a year on public health consequences for obesity, and where it has most impacted is amongst young people. So the way to do it is collectively and then most of it is around education. So menu labeling was letting parents know you are busy, you have to go through the drive in at Taco Bell but you can see the menu is changing now in fast food restaurants. You can see McDonald's now actually promoting to their investors that they are changing.    So, in that context, I always thought that this was the best investment the federal government could do, and along with education. Not telling parents or kids they have to eat it because they won't unless they know it is good for them. And then we know from a nutritional standpoint that your palate changes and adjusts.    And in terms of spoilage in California, what we found is that we have actually reduced spoilage when we use fresh ingredients. So in California, I know we are weird and we are different, but 66 percent of Republicans and 87 percent of Democrats in a recent Pew Charitable Trust poll said that they supported the current standards.    So in the context of my colleague from Virginia talking about cost, I view this as an investment. We change the cost curve when we invest in letting kids know that they can grow healthy foods in their school gardens, they can go in the kitchen afterschool programs and Dr. Krey and Mrs. McAuliffe's overall question is in regards to larger context, directed at Mrs. McAuliffe and if Dr. Krey wants to jump in there.    And then the secondary thing is intercession, summer school loss, both cognitively and nutritionally, and what a difference it makes for poor kids. So those are the two sort of general questions in terms of cost avoidance in investment in a broad scale, not just in this program, and to agree with education. That the best way to gets kids and parents to invest in good nutrition is to educate them to the cost in the long term, both cognitively and nutritionally.    Ms. McAuliffe?</t>
   </si>
   <si>
@@ -637,6 +733,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman. And I am having one of those days where I have got two of these going on at the same time. In fact, we were talking about nutrition over at Ag, and the food bank process and how that is working coordinating with the SNAP program.    But I represent Georgia's 12th district where roughly 31 percent of children have limited or uncertain access to adequate nutritious food. These kids come from great families but, because of economic times, you know, they struggle to make ends meet living paycheck to paycheck.    We all know how important child nutrition is and I thank you for your work in that area. And, you know, our school food programs ensure that kids have access to the foods.    Dr. Krey, you state in your testimony that 19.5 percent of American households with children are food insecure. Can you discuss what being food insecure means and how that impacts children specifically?</t>
   </si>
   <si>
@@ -674,6 +776,12 @@
   </si>
   <si>
     <t>412308</t>
+  </si>
+  <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Jared</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman.    Last week in Colorado I got to visit the school nutrition services at Poudre School District in my district, which serves schools in Fort Collins area. And at Poudre School District they serve healthy, often locally-grown fruits and vegetables to students as part of their Farm-o-School initiative. The leaders of this school nutrition service at PSD are thrilled with upgrading the federal regs. In fact, due, in fact, part to whole grains, they have been able to attract 10 percent more families back to opt in to the district lunch program.    As an example of what they are serving then, they put their menu and recipes up at PSDSchools.nutraslice.com, PSDSSchools@nutraslice.com. Today, they are serving a General Tso chicken and steamed broccoli. Yesterday was lasagna with veggies, rotini with roasted spring veggies, and chicken, and steamed vegetables.    They have really found that offering healthy and nutritious food in excess of the federal nutrition standards actually helps pull families back into participating, which improves the economic viability of their paid lunch program and, of course, as well through scale, their free and reduced lunch program. They are very excited about bringing healthier foods to students and helping instill positive eating habits in schools.    Another school district in Boulder Valley School District in my district in Colorado, working with Chef Ann Cooper and the Ann Cooper Foundation, has implemented a large-scale food change. As Chef Ann Cooper says, who is the head of nutrition food services for Boulder Valley School District, she says, ``I envision a time soon when being a chef working to feed children fresh, delicious and nourishing food will no longer be considered renegade.''    Mrs. McAuliffe, I was wondering if you could talk more about initiatives like those in Poudre School District and Boulder Valley School District and others that can be replicated and encouraged through a reauthorization of the child nutrition act?</t>
@@ -1055,7 +1163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,7 +1171,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,4973 +1193,5847 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>97</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>97</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G76" t="s">
+        <v>109</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G78" t="s">
+        <v>109</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G80" t="s">
+        <v>109</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G84" t="s">
+        <v>109</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G86" t="s">
+        <v>109</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G88" t="s">
+        <v>109</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G90" t="s">
+        <v>125</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G92" t="s">
+        <v>125</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G94" t="s">
+        <v>125</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G98" t="s">
+        <v>125</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G99" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G100" t="s">
+        <v>125</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>105</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G102" t="s">
+        <v>125</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>105</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G104" t="s">
+        <v>125</v>
+      </c>
       <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>105</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G106" t="s">
+        <v>125</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G107" t="s">
+        <v>125</v>
+      </c>
       <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G109" t="s">
+        <v>125</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G111" t="s">
+        <v>125</v>
+      </c>
       <c r="H111" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>105</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G113" t="s">
+        <v>125</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s">
+        <v>32</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>105</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G115" t="s">
+        <v>125</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s">
+        <v>32</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>105</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G117" t="s">
+        <v>125</v>
+      </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G120" t="s">
+        <v>157</v>
+      </c>
       <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G122" t="s">
+        <v>157</v>
+      </c>
       <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G124" t="s">
+        <v>157</v>
+      </c>
       <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G126" t="s">
+        <v>157</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G128" t="s">
+        <v>157</v>
+      </c>
       <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G130" t="s">
+        <v>157</v>
+      </c>
       <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G131" t="s">
+        <v>157</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>135</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>156</v>
+      </c>
+      <c r="G133" t="s">
+        <v>157</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G135" t="s">
+        <v>175</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G137" t="s">
+        <v>175</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G139" t="s">
+        <v>175</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G141" t="s">
+        <v>175</v>
+      </c>
       <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>176</v>
+      </c>
+      <c r="I141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>161</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G144" t="s">
+        <v>187</v>
+      </c>
       <c r="H144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G145" t="s">
+        <v>29</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>161</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G146" t="s">
+        <v>187</v>
+      </c>
       <c r="H146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G147" t="s">
+        <v>29</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G149" t="s">
+        <v>187</v>
+      </c>
       <c r="H149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I149" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>161</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G150" t="s">
+        <v>187</v>
+      </c>
       <c r="H150" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I150" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>22</v>
+      </c>
       <c r="H152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
       <c r="H154" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G155" t="s">
+        <v>35</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>176</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G158" t="s">
+        <v>204</v>
+      </c>
       <c r="H158" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G160" t="s">
+        <v>204</v>
+      </c>
       <c r="H160" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G161" t="s">
+        <v>32</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>176</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="G162" t="s">
+        <v>204</v>
+      </c>
       <c r="H162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>184</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G166" t="s">
+        <v>214</v>
+      </c>
       <c r="H166" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>32</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>184</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G168" t="s">
+        <v>214</v>
+      </c>
       <c r="H168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>184</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G170" t="s">
+        <v>214</v>
+      </c>
       <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G171" t="s">
+        <v>29</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>184</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G172" t="s">
+        <v>214</v>
+      </c>
       <c r="H172" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I172" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G173" t="s">
+        <v>35</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>184</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G174" t="s">
+        <v>214</v>
+      </c>
       <c r="H174" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I174" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>184</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="G176" t="s">
+        <v>214</v>
+      </c>
       <c r="H176" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I176" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
       <c r="H177" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>197</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G178" t="s">
+        <v>228</v>
+      </c>
       <c r="H178" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>197</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G180" t="s">
+        <v>228</v>
+      </c>
       <c r="H180" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I180" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G181" t="s">
+        <v>35</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>197</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G182" t="s">
+        <v>228</v>
+      </c>
       <c r="H182" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I182" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s">
+        <v>38</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>197</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G184" t="s">
+        <v>228</v>
+      </c>
       <c r="H184" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I184" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>206</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="G186" t="s">
+        <v>239</v>
+      </c>
       <c r="H186" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G187" t="s">
+        <v>38</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>206</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="G188" t="s">
+        <v>239</v>
+      </c>
       <c r="H188" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I188" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G189" t="s">
+        <v>32</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>206</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="G190" t="s">
+        <v>239</v>
+      </c>
       <c r="H190" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I190" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>206</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="G191" t="s">
+        <v>239</v>
+      </c>
       <c r="H191" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I191" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G192" t="s">
+        <v>32</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>206</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="G193" t="s">
+        <v>239</v>
+      </c>
       <c r="H193" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I193" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>206</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="G194" t="s">
+        <v>239</v>
+      </c>
       <c r="H194" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I194" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G195" t="s">
+        <v>32</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>206</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="G196" t="s">
+        <v>239</v>
+      </c>
       <c r="H196" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I196" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
       <c r="H197" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>219</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G198" t="s">
+        <v>254</v>
+      </c>
       <c r="H198" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I198" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>21</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G199" t="s">
+        <v>35</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>219</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G200" t="s">
+        <v>254</v>
+      </c>
       <c r="H200" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I200" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>21</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G201" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>219</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="G202" t="s">
+        <v>254</v>
+      </c>
       <c r="H202" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I202" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="G203" t="s">
+        <v>32</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s">
+        <v>17</v>
+      </c>
       <c r="H205" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I205" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
       <c r="H206" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s">
+        <v>17</v>
+      </c>
       <c r="H207" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I207" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
       <c r="H208" t="s">
-        <v>230</v>
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94088.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94088.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400224</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Kline</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400364</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Scott</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412605</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Brat</t>
@@ -1163,7 +1175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,7 +1183,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,5844 +1208,6304 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
         <v>18</v>
       </c>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I70" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G78" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G84" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s">
-        <v>38</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>42</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G90" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G92" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G94" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" t="s">
-        <v>29</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>36</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G98" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>36</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G100" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>36</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>36</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G104" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" t="s">
-        <v>32</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G106" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G107" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G109" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G111" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>36</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G113" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>36</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G115" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>36</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G117" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G120" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H120" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G122" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G124" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I124" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G126" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I126" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>36</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G128" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H128" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>36</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G130" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H130" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G131" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I131" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>36</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G133" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G135" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H135" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I135" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>180</v>
+      </c>
+      <c r="J135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>29</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>33</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G137" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H137" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I137" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>180</v>
+      </c>
+      <c r="J137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G139" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I139" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>180</v>
+      </c>
+      <c r="J139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G141" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="H141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I141" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>180</v>
+      </c>
+      <c r="J141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G144" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H144" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" t="s">
-        <v>29</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G146" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H146" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I146" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" t="s">
-        <v>29</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>33</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G149" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I149" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G150" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H150" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I150" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G152" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I152" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>28</v>
-      </c>
-      <c r="G153" t="s">
-        <v>35</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>39</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G154" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H154" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I154" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
-      </c>
-      <c r="G155" t="s">
-        <v>35</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>39</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G158" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="H158" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I158" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>209</v>
+      </c>
+      <c r="J158" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G160" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="H160" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I160" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>209</v>
+      </c>
+      <c r="J160" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>28</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>36</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G162" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="H162" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I162" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>209</v>
+      </c>
+      <c r="J162" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>36</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>39</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G166" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H166" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="I166" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J166" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>36</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G168" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H168" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="I168" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J168" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>36</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G170" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H170" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="I170" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>28</v>
-      </c>
-      <c r="G171" t="s">
-        <v>29</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>33</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G172" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H172" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="I172" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" t="s">
-        <v>35</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>39</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G174" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H174" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="I174" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
-      </c>
-      <c r="G175" t="s">
-        <v>35</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>39</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G176" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="H176" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="I176" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I177" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G178" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="H178" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I178" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J178" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>28</v>
-      </c>
-      <c r="G179" t="s">
-        <v>35</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>39</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G180" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="H180" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I180" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J180" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
-      </c>
-      <c r="G181" t="s">
-        <v>35</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>39</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G182" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="H182" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I182" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
-      </c>
-      <c r="G183" t="s">
-        <v>38</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>42</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G184" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="H184" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I184" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>233</v>
+      </c>
+      <c r="J184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I185" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G186" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="H186" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I186" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J186" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
-      </c>
-      <c r="G187" t="s">
-        <v>38</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>42</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G188" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="H188" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I188" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J188" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>32</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>36</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G190" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="H190" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I190" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J190" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G191" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="H191" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I191" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J191" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192" t="s">
-        <v>32</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>36</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G193" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="H193" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I193" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J193" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G194" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="H194" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I194" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>28</v>
-      </c>
-      <c r="G195" t="s">
-        <v>32</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>36</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G196" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="H196" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I196" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J196" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I197" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G198" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="H198" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I198" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J198" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>28</v>
-      </c>
-      <c r="G199" t="s">
-        <v>35</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>39</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G200" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="H200" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I200" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J200" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
-      </c>
-      <c r="G201" t="s">
-        <v>32</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>36</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G202" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="H202" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I202" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J202" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>28</v>
-      </c>
-      <c r="G203" t="s">
-        <v>32</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>36</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G205" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H205" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I205" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J205" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I206" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I207" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J207" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>266</v>
+        <v>16</v>
+      </c>
+      <c r="J208" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
